--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B519"/>
+  <dimension ref="A1:B520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4591,6 +4591,14 @@
         <v>0.654</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B520" t="n">
+        <v>0.592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B520"/>
+  <dimension ref="A1:B521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4599,6 +4599,14 @@
         <v>0.592</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="B521" t="n">
+        <v>0.576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B521"/>
+  <dimension ref="A1:B522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4607,6 +4607,14 @@
         <v>0.576</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0.137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B522"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4615,6 +4615,14 @@
         <v>0.137</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B523" t="n">
+        <v>-0.822</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B523"/>
+  <dimension ref="A1:B524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4623,6 +4623,14 @@
         <v>-0.822</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B524" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B524"/>
+  <dimension ref="A1:B525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4631,6 +4631,14 @@
         <v>0.48</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B525" t="n">
+        <v>0.787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B525"/>
+  <dimension ref="A1:B526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4639,6 +4639,14 @@
         <v>0.787</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B526" t="n">
+        <v>1.524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B526"/>
+  <dimension ref="A1:B527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4647,6 +4647,14 @@
         <v>1.524</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B527" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B527"/>
+  <dimension ref="A1:B528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4655,6 +4655,14 @@
         <v>0.362</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B528" t="n">
+        <v>1.707</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B528"/>
+  <dimension ref="A1:B529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4663,6 +4663,14 @@
         <v>1.707</v>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="B529" t="n">
+        <v>1.735</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B529"/>
+  <dimension ref="A1:B531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4524,7 +4524,7 @@
         <v>44377</v>
       </c>
       <c r="B511" t="n">
-        <v>1.203</v>
+        <v>1.179</v>
       </c>
     </row>
     <row r="512">
@@ -4532,7 +4532,7 @@
         <v>44408</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.424</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="513">
@@ -4540,7 +4540,7 @@
         <v>44439</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.19</v>
+        <v>-0.227</v>
       </c>
     </row>
     <row r="514">
@@ -4548,7 +4548,7 @@
         <v>44469</v>
       </c>
       <c r="B514" t="n">
-        <v>1.361</v>
+        <v>1.336</v>
       </c>
     </row>
     <row r="515">
@@ -4556,7 +4556,7 @@
         <v>44500</v>
       </c>
       <c r="B515" t="n">
-        <v>0.46</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="516">
@@ -4564,7 +4564,7 @@
         <v>44530</v>
       </c>
       <c r="B516" t="n">
-        <v>1.31</v>
+        <v>1.321</v>
       </c>
     </row>
     <row r="517">
@@ -4572,7 +4572,7 @@
         <v>44561</v>
       </c>
       <c r="B517" t="n">
-        <v>2.159</v>
+        <v>2.155</v>
       </c>
     </row>
     <row r="518">
@@ -4580,7 +4580,7 @@
         <v>44592</v>
       </c>
       <c r="B518" t="n">
-        <v>0.836</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="519">
@@ -4588,7 +4588,7 @@
         <v>44620</v>
       </c>
       <c r="B519" t="n">
-        <v>0.654</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="520">
@@ -4596,7 +4596,7 @@
         <v>44651</v>
       </c>
       <c r="B520" t="n">
-        <v>0.592</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="521">
@@ -4604,7 +4604,7 @@
         <v>44681</v>
       </c>
       <c r="B521" t="n">
-        <v>0.576</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="522">
@@ -4612,7 +4612,7 @@
         <v>44712</v>
       </c>
       <c r="B522" t="n">
-        <v>0.137</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="523">
@@ -4620,7 +4620,7 @@
         <v>44742</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.822</v>
+        <v>-0.871</v>
       </c>
     </row>
     <row r="524">
@@ -4628,7 +4628,7 @@
         <v>44773</v>
       </c>
       <c r="B524" t="n">
-        <v>0.48</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="525">
@@ -4636,7 +4636,7 @@
         <v>44804</v>
       </c>
       <c r="B525" t="n">
-        <v>0.787</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="526">
@@ -4644,7 +4644,7 @@
         <v>44834</v>
       </c>
       <c r="B526" t="n">
-        <v>1.524</v>
+        <v>1.469</v>
       </c>
     </row>
     <row r="527">
@@ -4652,7 +4652,7 @@
         <v>44865</v>
       </c>
       <c r="B527" t="n">
-        <v>0.362</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="528">
@@ -4660,7 +4660,7 @@
         <v>44895</v>
       </c>
       <c r="B528" t="n">
-        <v>1.707</v>
+        <v>1.713</v>
       </c>
     </row>
     <row r="529">
@@ -4668,7 +4668,23 @@
         <v>44926</v>
       </c>
       <c r="B529" t="n">
-        <v>1.735</v>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B530" t="n">
+        <v>2.304</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B531" t="n">
+        <v>0.554</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4686,6 +4686,14 @@
         <v>0.554</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B532" t="n">
+        <v>-0.258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B532"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4694,6 +4694,14 @@
         <v>-0.258</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B533" t="n">
+        <v>-0.921</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B533"/>
+  <dimension ref="A1:B534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4702,6 +4702,14 @@
         <v>-0.921</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B534" t="n">
+        <v>1.452</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B534"/>
+  <dimension ref="A1:B535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4710,6 +4710,14 @@
         <v>1.452</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B535" t="n">
+        <v>-0.438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B535"/>
+  <dimension ref="A1:B536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4718,6 +4718,14 @@
         <v>-0.438</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B536" t="n">
+        <v>-0.8179999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B536"/>
+  <dimension ref="A1:B537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4726,6 +4726,14 @@
         <v>-0.8179999999999999</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B537" t="n">
+        <v>-0.038</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:B538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4734,6 +4734,14 @@
         <v>-0.038</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B538" t="n">
+        <v>-1.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B538"/>
+  <dimension ref="A1:B539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4742,6 +4742,14 @@
         <v>-1.05</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B539"/>
+  <dimension ref="A1:B540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4750,6 +4750,14 @@
         <v>0.535</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B540"/>
+  <dimension ref="A1:B541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4758,6 +4758,14 @@
         <v>0.097</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B541" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAM/data/SAM.xlsx
+++ b/SAM/data/SAM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B541"/>
+  <dimension ref="A1:B542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4766,6 +4766,14 @@
         <v>1.51</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0.922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
